--- a/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_valid.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL475325</t>
+          <t>CHEMBL411662</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>296.28</v>
+        <v>420.85</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -584,13 +584,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>91.56</v>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72655B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DFC0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL518903</t>
+          <t>CHEMBL270021</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCn4cccc4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCn4cccc4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(OCCCN3CCCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>483.96</v>
+        <v>534.01</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>87.12</v>
+        <v>104.03</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7265150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DC40&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL472687</t>
+          <t>CHEMBL475325</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>499.95</v>
+        <v>296.28</v>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>85.48999999999999</v>
+        <v>91.56</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7264970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E420&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL520537</t>
+          <t>CHEMBL518903</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCn4cccc4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCn4cccc4)c(O)cc3c21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>484.9</v>
+        <v>483.96</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>106.22</v>
+        <v>87.12</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7264660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D690&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL362692</t>
+          <t>CHEMBL461134</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCCCC4)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c(-c2c(Cl)cccc2Cl)cc2cnc(Nc3ccc(CCCC(=O)OCCN4CCCCC4)cc3)nc21</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>594.54</v>
+        <v>530.41</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" t="n">
         <v>5</v>
       </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
       <c r="M6" t="n">
-        <v>89.34999999999999</v>
+        <v>83.36</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72643C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D540&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL510668</t>
+          <t>CHEMBL472687</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>Cn1c2cc(OCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>Cn1c2cc(OCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>455.51</v>
+        <v>499.95</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>83.8</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7266880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CF20&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL255565</t>
+          <t>CHEMBL520071</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,35 +964,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCCC3)cc2n1CCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>532.04</v>
+        <v>510.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>94.8</v>
+        <v>83.8</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72661F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CA50&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL452829</t>
+          <t>CHEMBL510668</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>505.36</v>
+        <v>455.51</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
@@ -1066,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>89.15000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7265D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C580&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL486101</t>
+          <t>CHEMBL271084</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
+          <t>Cn1c2cc(CCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
+          <t>Cn1c2cc(CCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>538.39</v>
+        <v>502.01</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>100.87</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7265770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E490&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL529669</t>
+          <t>CHEMBL452829</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1183,29 +1183,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>475.93</v>
+        <v>505.36</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
         <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>83.8</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72647B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DE70&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1690&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C26C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937BC0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937D80&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C14D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937920&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C0B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937AE0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A72C1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937D10&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7257AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937A00&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7257F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937B50&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7254DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937E60&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7257A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937A70&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7257D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937CA0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7265850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C0B0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7266650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E0A0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7264890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E340&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001B8A7266420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D770&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">

--- a/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_valid.xlsx
+++ b/F_dataset/DUD-E/WEE1/WEE1_preprocessing/WEE1_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL411662</t>
+          <t>CHEMBL258067</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCOCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCO</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)c(CCCCN3CCOCC3)cc2n1CCO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>420.85</v>
+        <v>548.04</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>91.56</v>
+        <v>104.03</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EC6FF40&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54E40&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL475325</t>
+          <t>CHEMBL452078</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCO</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5c(Cl)cccc5Cl)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1ccc1c2c2cc(O)ccc2n1CCO</t>
+          <t>CN1CCN(CCCn2c3ccc(O)cc3c3c4c(c(-c5c(Cl)cccc5Cl)cc32)C(=O)NC4=O)CC1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>296.28</v>
+        <v>537.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>91.56</v>
+        <v>77.81</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54510&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL518903</t>
+          <t>CHEMBL520071</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCn4cccc4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1[nH]c3cc(CCCCn4cccc4)c(O)cc3c21</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>483.96</v>
+        <v>510.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>87.12</v>
+        <v>83.8</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE54F90&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL461134</t>
+          <t>CHEMBL459889</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,44 +828,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCNc1ccccc1</t>
+          <t>O=C(O)CCn1c2ccc(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>530.41</v>
+        <v>434.84</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>83.36</v>
+        <v>108.63</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE55150&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL472687</t>
+          <t>CHEMBL530112</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,35 +896,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cn1c2cc(OCCCn3cccc3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>499.95</v>
+        <v>498.93</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>85.48999999999999</v>
+        <v>106.22</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56500&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL520071</t>
+          <t>CHEMBL519212</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,26 +964,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>510.38</v>
+        <v>517.97</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -992,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>83.8</v>
+        <v>100.87</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93CA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56730&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL510668</t>
+          <t>CHEMBL486661</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,26 +1032,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1ccccc1)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
+          <t>O=C1NC(=O)c2c1c(-c1ccccc1Cl)cc1c2c2cc(O)ccc2n1CCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>455.51</v>
+        <v>489.96</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56B20&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL271084</t>
+          <t>CHEMBL486101</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cn1c2cc(CCCCN3CCCC3)c(O)cc2c2c3c(c(-c4ccccc4Cl)cc21)C(=O)NC3=O</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>502.01</v>
+        <v>538.39</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>74.56999999999999</v>
+        <v>100.87</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56C70&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL452829</t>
+          <t>CHEMBL486728</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCCn1ccnc1</t>
+          <t>O=C1NC(=O)c2c1c(-c1c(Cl)cccc1Cl)cc1c2c2cc(O)ccc2n1CCC(=O)n1ccnc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>505.36</v>
+        <v>519.34</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>89.15000000000001</v>
+        <v>106.22</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93DE70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE56CE0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C37835134</t>
+          <t>C57345561</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NC(=O)CC1CCN(C(=O)[C@H]2CCCC[C@@H]2C(=O)[O-])CC1</t>
+          <t>[NH3+]C1CCN(Cc2nnn(-c3ccc(Cl)c(C(F)(F)F)c3)c2-c2ccncc2)CC1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NC(=O)CC1CCN(C(=O)[C@H]2CCCC[C@@H]2C(=O)[O-])CC1</t>
+          <t>[NH3+]C1CCN(Cc2nnn(-c3ccc(Cl)c(C(F)(F)F)c3)c2-c2ccncc2)CC1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>295.36</v>
+        <v>437.88</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1267,13 +1267,13 @@
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>103.53</v>
+        <v>74.48</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD9A1690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE249E0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C41991885</t>
+          <t>C41062467</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C[C@](Sc1nncn1N)(C(=O)[O-])c1c(F)cccc1F</t>
+          <t>Cc1n[nH]c(Sc2ccc(Cl)cc2N)n1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C[C@](Sc1nncn1N)(C(=O)[O-])c1c(F)cccc1F</t>
+          <t>Cc1n[nH]c(Sc2ccc(Cl)cc2N)n1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>299.28</v>
+        <v>240.72</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>96.86</v>
+        <v>67.59</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24A50&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C33939840</t>
+          <t>C04095454</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CC(C)CCN1C(=O)[C@H]2[C@@H](C(=O)NC3CCCCC3)[C@@]3(C)C=C[C@@]2(O3)[C@@H]1C(=O)NC1CCCCC1</t>
+          <t>[H]/N=C1/SC(N)=C(C#N)[C@H](c2c(Cl)cccc2Cl)[C@@H]1C#N</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CC(C)CCN1C(=O)[C@H]2[C@@H](C(=O)NC3CCCCC3)[C@@]3(C)C=C[C@@]2(O3)[C@@H]1C(=O)NC1CCCCC1</t>
+          <t>[H]/N=C1/SC(N)=C(C#N)[C@H](c2c(Cl)cccc2Cl)[C@@H]1C#N</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>485.67</v>
+        <v>323.21</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -1400,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>87.73999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24120&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C29063180</t>
+          <t>C13041664</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1ccc2cc(C(=O)NNC(=O)c3cc(Br)c[nH]3)[nH]c2c1</t>
+          <t>O=S(=O)(/N=C1/CCCCCN1)c1cccc([N-]S(=O)(=O)c2cccs2)c1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1ccc2cc(C(=O)NNC(=O)c3cc(Br)c[nH]3)[nH]c2c1</t>
+          <t>O=S(=O)(/N=C1/CCCCCN1)c1cccc([N-]S(=O)(=O)c2cccs2)c1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>403.28</v>
+        <v>412.54</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>89.78</v>
+        <v>106.77</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE242E0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C05638902</t>
+          <t>C13499749</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=C(N[C@]12CCC[C@@H]1[C@H]1CC[C@@H]2C1)N[C@@]12CCC[C@@H]1[C@H]1CC[C@@H]2C1</t>
+          <t>CCc1nc2sc3c(c2c2nnc(SCC(=O)NNC(=O)c4ccc(C)cc4)n12)CC[C@H](C)C3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O=C(N[C@]12CCC[C@@H]1[C@H]1CC[C@@H]2C1)N[C@@]12CCC[C@@H]1[C@H]1CC[C@@H]2C1</t>
+          <t>CCc1nc2sc3c(c2c2nnc(SCC(=O)NNC(=O)c4ccc(C)cc4)n12)CC[C@H](C)C3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>328.5</v>
+        <v>494.65</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>41.13</v>
+        <v>101.28</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24350&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C25611773</t>
+          <t>C39940316</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(N2CCCCC2)c(NC(=O)c2csc(-c3ccc(F)cc3)n2)c1</t>
+          <t>Oc1cccc(-c2conc3sc(N4N[C@@H](C(F)(F)F)C[C@@H]4c4ccc5ccccc5c4)cn3[nH]2)c1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(N2CCCCC2)c(NC(=O)c2csc(-c3ccc(F)cc3)n2)c1</t>
+          <t>Oc1cccc(-c2conc3sc(N4N[C@@H](C(F)(F)F)C[C@@H]4c4ccc5ccccc5c4)cn3[nH]2)c1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>424.5</v>
+        <v>511.53</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>88.31999999999999</v>
+        <v>81.73</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE243C0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C43460825</t>
+          <t>C35577776</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nc1nc(Cc2nc3ncc(Br)cc3[nH]2)cs1</t>
+          <t>Nc1c2c(-c3ccccc3F)nc(NC3CCCC3)nc2nn1-c1cccc(F)c1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nc1nc(Cc2nc3ncc(Br)cc3[nH]2)cs1</t>
+          <t>Nc1c2c(-c3ccccc3F)nc(NC3CCCC3)nc2nn1-c1cccc(F)c1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>310.18</v>
+        <v>406.44</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>80.48</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24430&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C25369725</t>
+          <t>C44491443</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1ccc(S(=O)(=O)NC2CC2)cc1[N-]S(=O)(=O)c1ccc(Br)cc1Cl</t>
+          <t>C[C@@H]1C[C@H]2[C@@H]3CCC4=CC(=O)C=C[C@@]4(C)[C@]3(Cl)[C@@H](O)C[C@@]2(C)[C@@]1(OC(=O)c1ccco1)C(=O)CCl</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1ccc(S(=O)(=O)NC2CC2)cc1[N-]S(=O)(=O)c1ccc(Br)cc1Cl</t>
+          <t>C[C@@H]1C[C@H]2[C@@H]3CCC4=CC(=O)C=C[C@@]4(C)[C@]3(Cl)[C@@H](O)C[C@@]2(C)[C@@]1(OC(=O)c1ccco1)C(=O)CCl</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>494.8</v>
+        <v>521.4400000000001</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>103.64</v>
+        <v>93.81</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE244A0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C62329337</t>
+          <t>C20709209</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1ncc(-c2nc3c(s2)CCCCC3)c(N)n1</t>
+          <t>O=[N+]([O-])c1ccc(O)c([C@H]2Nc3ccc(S(=O)(=O)N4CCc5ccccc54)cc3[C@@H]3C=CC[C@@H]23)c1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1ncc(-c2nc3c(s2)CCCCC3)c(N)n1</t>
+          <t>O=[N+]([O-])c1ccc(O)c([C@H]2Nc3ccc(S(=O)(=O)N4CCc5ccccc54)cc3[C@@H]3C=CC[C@@H]23)c1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>260.37</v>
+        <v>489.55</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
       <c r="M20" t="n">
-        <v>64.69</v>
+        <v>112.78</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24510&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C13460367</t>
+          <t>C20731083</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COc1cc(/C=C/C(=O)[O-])cc(S(=O)(=O)/N=c2/[nH]c(-c3ccc4c(c3)CCO4)cs2)c1OC</t>
+          <t>O=C([O-])[C@H](c1c[nH]c2ccc(Br)cc12)[NH+]1CCC(c2noc3cc(F)ccc23)CC1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COc1cc(/C=C/C(=O)[O-])cc(S(=O)(=O)/N=c2/[nH]c(-c3ccc4c(c3)CCO4)cs2)c1OC</t>
+          <t>O=C([O-])[C@H](c1c[nH]c2ccc(Br)cc12)[NH+]1CCC(c2noc3cc(F)ccc23)CC1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1863,29 +1863,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>487.54</v>
+        <v>472.31</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>130.11</v>
+        <v>86.39</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24580&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C16573745</t>
+          <t>C59310293</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CC[C@H](C)[C@@H](NC(=O)Nc1ccc(C)cc1C)C(=O)Nc1nnc(-c2cccc(Br)c2)s1</t>
+          <t>C[C@@H](NC(=O)CSc1n[nH]c(N/N=C/c2ccc3ccc4cccc5ccc2c3c45)n1)c1ccccc1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CC[C@H](C)[C@@H](NC(=O)Nc1ccc(C)cc1C)C(=O)Nc1nnc(-c2cccc(Br)c2)s1</t>
+          <t>C[C@@H](NC(=O)CSc1n[nH]c(N/N=C/c2ccc3ccc4cccc5ccc2c3c45)n1)c1ccccc1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1931,29 +1931,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>516.47</v>
+        <v>504.62</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>96.01000000000001</v>
+        <v>95.06</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD937CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24660&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL384293</t>
+          <t>C43460825</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccc(-c3ccccc3)c1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>Nc1nc(Cc2nc3ncc(Br)cc3[nH]2)cs1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c(-c1cccc(-c3ccccc3)c1)cc1[nH]c3ccc(O)cc3c21</t>
+          <t>Nc1nc(Cc2nc3ncc(Br)cc3[nH]2)cs1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1999,66 +1999,40 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>404.43</v>
+        <v>310.18</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>82.19</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>40000</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>CHEMBL864855</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Inhibition of human Wee1 in presence of 9.5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>80.48</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93C0B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE246D0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2070,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL4207014</t>
+          <t>C08965442</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2078,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
+          <t>Cc1nc(SCC2=C(C(=O)OC(C)C)[C@H](c3cccs3)C(C#N)=C(N)O2)c(C#N)c(C)c1C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
+          <t>Cc1nc(SCC2=C(C(=O)OC(C)C)[C@H](c3cccs3)C(C#N)=C(N)O2)c(C#N)c(C)c1C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2093,66 +2067,40 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>405.44</v>
+        <v>480.62</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5</v>
-      </c>
       <c r="M24" t="n">
-        <v>132.44</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>CHEMBL4191232</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 1 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate after 40 mins in presence of [gamma-33P]ATP by scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>122.02</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE247B0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2164,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL4548580</t>
+          <t>C39560807</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2172,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)c1cc2cnc(Nc3ccc(NC(=O)CCCCCCCN=C=S)cc3)nc2n1C1CCCC1</t>
+          <t>COC(=O)[C@@H]1CC2=C3CC=CC=C3N=C2[C@H]2C[C@@H]([NH+]3CC[C@@H](O)C3)C[C@@H](c3ccc(SC)cc3)N21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)c1cc2cnc(Nc3ccc(NC(=O)CCCCCCCN=C=S)cc3)nc2n1C1CCCC1</t>
+          <t>COC(=O)[C@@H]1CC2=C3CC=CC=C3N=C2[C@H]2C[C@@H]([NH+]3CC[C@@H](O)C3)C[C@@H](c3ccc(SC)cc3)N12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2187,66 +2135,40 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>547.73</v>
+        <v>492.67</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
         <v>6</v>
       </c>
-      <c r="J25" t="n">
-        <v>13</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4</v>
-      </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>104.51</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>8</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>CHEMBL4377975</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human Wee1 (214 to end residues) at 1 uM using LSNLYHQGKFLQTFCGSPLYRRR as substrate measured after 40 mins in presence of [gamma33P]ATP by scintillation counting method relative to control</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>66.56999999999999</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93E340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24820&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2258,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL2012574</t>
+          <t>C25369725</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2266,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
+          <t>COc1ccc(S(=O)(=O)NC2CC2)cc1[N-]S(=O)(=O)c1ccc(Br)cc1Cl</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
+          <t>COc1ccc(S(=O)(=O)NC2CC2)cc1[N-]S(=O)(=O)c1ccc(Br)cc1Cl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2281,66 +2203,40 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>337.35</v>
+        <v>494.8</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>CHEMBL2015527</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Inhibition of WEE1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>103.64</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028BCD93D770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002745EE24900&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
